--- a/src/Presentation/Virgol.School/BulkUserData/BulkUserData.xlsx
+++ b/src/Presentation/Virgol.School/BulkUserData/BulkUserData.xlsx
@@ -1,118 +1,5 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\Sample Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717BA7A-5A12-472B-8531-5532F2892039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>نام</t>
-  </si>
-  <si>
-    <t>نام خانوادگی</t>
-  </si>
-  <si>
-    <t>کدملی</t>
-  </si>
-  <si>
-    <t>تلفن</t>
-  </si>
-  <si>
-    <t>ایمیل</t>
-  </si>
-  <si>
-    <t>نام لاتین</t>
-  </si>
-  <si>
-    <t>نام خانوادگی لاتین</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علی </t>
-  </si>
-  <si>
-    <t>دولت ابادی</t>
-  </si>
-  <si>
-    <t>dolatAbadi</t>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -365,72 +252,9 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1053527951</v>
-      </c>
-      <c r="D2">
-        <v>9158763344</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
--- a/src/Presentation/Virgol.School/BulkUserData/BulkUserData.xlsx
+++ b/src/Presentation/Virgol.School/BulkUserData/BulkUserData.xlsx
@@ -1,5 +1,229 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\Sample Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA86D21-2B56-4099-87C2-21B540D7BF7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>نام</t>
+  </si>
+  <si>
+    <t>نام خانوادگی</t>
+  </si>
+  <si>
+    <t>کدملی</t>
+  </si>
+  <si>
+    <t>تلفن</t>
+  </si>
+  <si>
+    <t>ایمیل</t>
+  </si>
+  <si>
+    <t>نام لاتین</t>
+  </si>
+  <si>
+    <t>نام خانوادگی لاتین</t>
+  </si>
+  <si>
+    <t>غرفان</t>
+  </si>
+  <si>
+    <t>دهجوریان</t>
+  </si>
+  <si>
+    <t>erfan</t>
+  </si>
+  <si>
+    <t>dehjorian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد </t>
+  </si>
+  <si>
+    <t>قنبری</t>
+  </si>
+  <si>
+    <t>mohammad</t>
+  </si>
+  <si>
+    <t>ghanbari</t>
+  </si>
+  <si>
+    <t>علی</t>
+  </si>
+  <si>
+    <t>کبیری</t>
+  </si>
+  <si>
+    <t>kabiri</t>
+  </si>
+  <si>
+    <t>حسن</t>
+  </si>
+  <si>
+    <t>نوری</t>
+  </si>
+  <si>
+    <t>hassan</t>
+  </si>
+  <si>
+    <t>nori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسن </t>
+  </si>
+  <si>
+    <t>امیری</t>
+  </si>
+  <si>
+    <t>amiri</t>
+  </si>
+  <si>
+    <t>مجتبی</t>
+  </si>
+  <si>
+    <t>دباغ</t>
+  </si>
+  <si>
+    <t>mojtaba</t>
+  </si>
+  <si>
+    <t>dabagh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پارسا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">قربانی </t>
+  </si>
+  <si>
+    <t>parsa</t>
+  </si>
+  <si>
+    <t>ghorbani</t>
+  </si>
+  <si>
+    <t>بهشتی</t>
+  </si>
+  <si>
+    <t>behesthi</t>
+  </si>
+  <si>
+    <t>روزبه</t>
+  </si>
+  <si>
+    <t>کریمی</t>
+  </si>
+  <si>
+    <t>rozbeh</t>
+  </si>
+  <si>
+    <t>karimi</t>
+  </si>
+  <si>
+    <t>احمد رضا</t>
+  </si>
+  <si>
+    <t>گلقندشتی</t>
+  </si>
+  <si>
+    <t>ahmadreza</t>
+  </si>
+  <si>
+    <t>gholghandashti</t>
+  </si>
+  <si>
+    <t>ایلیا</t>
+  </si>
+  <si>
+    <t>برجی</t>
+  </si>
+  <si>
+    <t>ilia</t>
+  </si>
+  <si>
+    <t>borji</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -252,9 +476,272 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1051272280</v>
+      </c>
+      <c r="D2">
+        <v>9153529743</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>1053689823</v>
+      </c>
+      <c r="D3">
+        <v>9153784956</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1056784920</v>
+      </c>
+      <c r="D4">
+        <v>9157294786</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1055766927</v>
+      </c>
+      <c r="D5">
+        <v>9156879283</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1053256377</v>
+      </c>
+      <c r="D6">
+        <v>9153521122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>1051233344</v>
+      </c>
+      <c r="D7">
+        <v>9156789440</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>1053527940</v>
+      </c>
+      <c r="D8">
+        <v>9158763315</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1053527941</v>
+      </c>
+      <c r="D9">
+        <v>9158763316</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>1053527942</v>
+      </c>
+      <c r="D10">
+        <v>9158763317</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>1053527943</v>
+      </c>
+      <c r="D11">
+        <v>9155346789</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1053527939</v>
+      </c>
+      <c r="D12">
+        <v>9158763314</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>